--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F32648-E24A-4905-94F4-74E2FB8AE901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B12324-F118-4E9B-92FF-A02A8096F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9348" yWindow="2628" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7284" yWindow="4392" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B12324-F118-4E9B-92FF-A02A8096F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A40AFB-3A39-4DFC-ADD9-1A38AABC8B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7284" yWindow="4392" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4530" windowWidth="7200" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>long</t>
   </si>
@@ -47,6 +47,86 @@
   </si>
   <si>
     <t>noteImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_A_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_A_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_B_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_B_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_DangerousMission_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_DangerousMission_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_DefenseCollasped_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_DefenseCollasped_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5event1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5event1A_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5event1B_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5event1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_A_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_A_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_B_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_B_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DangerousMission_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DangerousMission_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DefenseSollasped_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DefenseSollasped_Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,20 +464,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -425,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -439,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -453,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -465,6 +546,118 @@
       </c>
       <c r="D5" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A40AFB-3A39-4DFC-ADD9-1A38AABC8B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB03CC-AE97-4557-8B6D-EFCB1FA4EC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4530" windowWidth="7200" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,11 +122,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JournalImage_Liu_DefenseSollasped_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JournalImage_Liu_DefenseSollasped_Text</t>
+    <t>JournalImage_Liu_DefenseCollasped_Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DefenseCollasped_Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB03CC-AE97-4557-8B6D-EFCB1FA4EC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE2CC6A-FAF7-49CA-9529-7D1DA77AA2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>long</t>
   </si>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Liu_VillageBoy_A_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Liu_VillageBoy_B_Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day5event1A_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>day5event1B_T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JournalImage_Liu_VillageBoy_A_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JournalImage_Liu_VillageBoy_B_Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +115,55 @@
   </si>
   <si>
     <t>JournalImage_Liu_DefenseCollasped_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_A_Text_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5event1A_T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_A_Text_02</t>
+  </si>
+  <si>
+    <t>day5event1A_T2</t>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_A_Text_03</t>
+  </si>
+  <si>
+    <t>day5event1A_T3</t>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_A_Text_04</t>
+  </si>
+  <si>
+    <t>day5event1A_T4</t>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_A_Text_05</t>
+  </si>
+  <si>
+    <t>day5event1A_T5</t>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_A_Text_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_A_Text_03</t>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_A_Text_04</t>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_A_Text_05</t>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_A_Text_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,10 +593,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,13 +604,13 @@
         <v>1002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -581,13 +618,13 @@
         <v>1003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -595,13 +632,13 @@
         <v>1004</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,13 +646,13 @@
         <v>1005</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -623,13 +660,13 @@
         <v>1006</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,13 +674,13 @@
         <v>1007</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -651,13 +688,69 @@
         <v>1008</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE2CC6A-FAF7-49CA-9529-7D1DA77AA2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97C6C6-AC88-40BC-8A51-35DC3D5F9429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Liu_VillageBoy_B_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu_VillageBoy_B_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Liu_DangerousMission_Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day5event1B_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>day5event1B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,14 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JournalImage_Liu_VillageBoy_B_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JournalImage_Liu_VillageBoy_B_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JournalImage_Liu_DangerousMission_Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,16 +134,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>JournalImage_Liu_VillageBoy_A_Text_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JournalImage_Liu_VillageBoy_A_Text_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JournalImage_Liu_VillageBoy_A_Text_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JournalImage_Liu_VillageBoy_A_Text_05</t>
-  </si>
-  <si>
-    <t>JournalImage_Liu_VillageBoy_A_Text_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_B_Image_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_VillageBoy_B_Image_02</t>
+  </si>
+  <si>
+    <t>day5event1B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_B_Image02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_VillageBoy_B_Image01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +506,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,10 +595,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -604,13 +606,13 @@
         <v>1002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,13 +620,13 @@
         <v>1003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,13 +634,13 @@
         <v>1004</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -646,13 +648,13 @@
         <v>1005</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -660,13 +662,13 @@
         <v>1006</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -674,13 +676,13 @@
         <v>1007</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -688,13 +690,13 @@
         <v>1008</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -702,13 +704,13 @@
         <v>1009</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -716,13 +718,13 @@
         <v>1010</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -730,13 +732,13 @@
         <v>1011</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -744,13 +746,13 @@
         <v>1012</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97C6C6-AC88-40BC-8A51-35DC3D5F9429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF362E2-A013-4E22-86BA-365327E9DD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,22 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Liu_DangerousMission_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu_DangerousMission_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu_DefenseCollasped_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu_DefenseCollasped_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>day5event1A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,22 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JournalImage_Liu_DangerousMission_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JournalImage_Liu_DangerousMission_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JournalImage_Liu_DefenseCollasped_Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JournalImage_Liu_DefenseCollasped_Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Liu_VillageBoy_A_Text_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +134,36 @@
   </si>
   <si>
     <t>JournalImage_Liu_VillageBoy_B_Image01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_DangerousMission_Image_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu_DangerousMission_Image_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DangerousMission_Image_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DangerousMission_Image_02</t>
+  </si>
+  <si>
+    <t>Liu_DefenseCollasped_Image_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DefenseCollasped_Image_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DefenseCollasped_Image_02</t>
+  </si>
+  <si>
+    <t>Liu_DefenseCollasped_Image_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +504,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,7 +512,7 @@
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -595,10 +593,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -606,13 +604,13 @@
         <v>1002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,13 +618,13 @@
         <v>1003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,13 +632,13 @@
         <v>1004</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,13 +646,13 @@
         <v>1005</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -662,13 +660,13 @@
         <v>1006</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -676,13 +674,13 @@
         <v>1007</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,13 +688,13 @@
         <v>1008</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -704,13 +702,13 @@
         <v>1009</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -718,13 +716,13 @@
         <v>1010</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -732,13 +730,13 @@
         <v>1011</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -746,13 +744,13 @@
         <v>1012</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF362E2-A013-4E22-86BA-365327E9DD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EF85D1-F73D-4EE9-ABA4-135BD955BB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,21 +149,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Liu_DefenseCollasped_Image_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DefenseCollasped_Image_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JournalImage_Liu_DefenseCollasped_Image_02</t>
+  </si>
+  <si>
+    <t>Liu_DefenseCollasped_Image_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JournalImage_Liu_DangerousMission_Image_02</t>
-  </si>
-  <si>
-    <t>Liu_DefenseCollasped_Image_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JournalImage_Liu_DefenseCollasped_Image_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JournalImage_Liu_DefenseCollasped_Image_02</t>
-  </si>
-  <si>
-    <t>Liu_DefenseCollasped_Image_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,21 +502,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -543,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -557,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -571,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -585,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
@@ -599,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
@@ -613,7 +614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
@@ -627,7 +628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
@@ -641,7 +642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
@@ -655,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1006</v>
       </c>
@@ -669,7 +670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1007</v>
       </c>
@@ -683,7 +684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1008</v>
       </c>
@@ -697,7 +698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1009</v>
       </c>
@@ -711,7 +712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1010</v>
       </c>
@@ -722,35 +723,45 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1011</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1012</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1014</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EF85D1-F73D-4EE9-ABA4-135BD955BB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F85E0-1C87-4947-9EA9-12515C4DD50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,21 +502,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="38.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -572,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
@@ -600,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
@@ -614,7 +614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
@@ -628,7 +628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
@@ -642,7 +642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
@@ -656,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1006</v>
       </c>
@@ -670,7 +670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1007</v>
       </c>
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1008</v>
       </c>
@@ -698,7 +698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1009</v>
       </c>
@@ -712,7 +712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1010</v>
       </c>
@@ -726,7 +726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1011</v>
       </c>
@@ -740,7 +740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1012</v>
       </c>
@@ -752,16 +752,6 @@
       </c>
       <c r="D17" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1014</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F85E0-1C87-4947-9EA9-12515C4DD50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE68C24-2829-43DF-9DDA-4E1CE5B24FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>long</t>
   </si>
@@ -165,6 +165,90 @@
   </si>
   <si>
     <t>JournalImage_Liu_DangerousMission_Image_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic_2</t>
+  </si>
+  <si>
+    <t>Epic_3</t>
+  </si>
+  <si>
+    <t>Epic_Skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whetherall_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whetherall_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whetherall_Skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo_Skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate_Default_Day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate_Driver_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate_Driver_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate_Driver_3</t>
+  </si>
+  <si>
+    <t>NoteTemplate_Driver_Skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate_Villager_RequestMedicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate_Villager_NoRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate_Villager_Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate_Halo_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoteTemplate_Halo_2</t>
+  </si>
+  <si>
+    <t>NoteTemplate_Halo_Skipped</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,6 +838,160 @@
         <v>36</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/Note_Data.xlsx
+++ b/GameDesign/ExcelData/Note_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE68C24-2829-43DF-9DDA-4E1CE5B24FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E813574-E55D-4BC5-AF98-0D6332E9E549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>long</t>
   </si>
@@ -249,6 +249,45 @@
   </si>
   <si>
     <t>NoteTemplate_Halo_Skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2_E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2_E2</t>
+  </si>
+  <si>
+    <t>Day2_E3</t>
+  </si>
+  <si>
+    <t>Day2_Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3_E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3_Default</t>
+  </si>
+  <si>
+    <t>Day3_Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2_Event1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day3_Event1</t>
+  </si>
+  <si>
+    <t>Day2_Event2</t>
+  </si>
+  <si>
+    <t>Day2_Event3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -992,6 +1031,90 @@
         <v>60</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
